--- a/Remaining_Students1.xlsx
+++ b/Remaining_Students1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasim\Desktop\sitting-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64787FC7-6D89-4DB1-B222-FD6DFFA01B18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{731827A0-39A7-4824-A5D6-F1A665F4CCEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2895" windowWidth="23040" windowHeight="12195" xr2:uid="{2CF6EB4B-2265-4903-AE79-FAD9EA70D33B}"/>
+    <workbookView xWindow="3900" yWindow="2895" windowWidth="23040" windowHeight="12195" xr2:uid="{647AC439-FDDB-4840-BD79-09AB5414553C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="7" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17396205-5585-4FB8-9E6C-25C20CF1D6BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9F1BB6-579E-4E94-965D-1CBA1033C92D}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF022A22-D1C7-4139-9B47-3253FDE6471A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A819BD-13BD-473A-9178-78D44991A816}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -625,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315BE217-10FD-4A41-91C3-EB548CD82434}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD66A014-8EE0-4CCC-B5EE-C646BD4782E8}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -743,7 +743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5766D1D-47DA-4169-8538-063E9653E03C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC0F7AC-D620-40B6-A05E-D0C21E9A3798}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6933A7-4610-4125-8734-1AB7C2B04291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0466EE8-0FE5-45E9-9BB7-7B881C109CA9}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -979,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49E054B-E128-4EE8-96F7-A703C3B1C2AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257D8E01-ED59-4A59-B329-B56BE68AF555}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1097,7 +1097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8D67DB-97BC-4F63-9DE4-3F8C0D655A94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E483AB-E3C0-48D7-AB3D-F7AB5054C4B0}">
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
